--- a/medicine/Enfance/Geneviève_Senger/Geneviève_Senger.xlsx
+++ b/medicine/Enfance/Geneviève_Senger/Geneviève_Senger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Senger</t>
+          <t>Geneviève_Senger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geneviève Senger, née à Mulhouse en 1956, est une auteure de livres pour la jeunesse et romancière française [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geneviève Senger, née à Mulhouse en 1956, est une auteure de livres pour la jeunesse et romancière française .
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Senger</t>
+          <t>Geneviève_Senger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Infirmière durant dix ans elle se consacre ensuite à l'écriture. Elle a écrit un temps sous le pseudonyme J. Esther Singer[2]. Elle a fait ses études au collège Jeanne d'Arc à Mulhouse, puis à l'Institut Sainte Ursule où elle a obtenu un baccalauréat série littéraire. Elle vit actuellement à Strasbourg[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infirmière durant dix ans elle se consacre ensuite à l'écriture. Elle a écrit un temps sous le pseudonyme J. Esther Singer. Elle a fait ses études au collège Jeanne d'Arc à Mulhouse, puis à l'Institut Sainte Ursule où elle a obtenu un baccalauréat série littéraire. Elle vit actuellement à Strasbourg.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Senger</t>
+          <t>Geneviève_Senger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix du Lys 2016 pour La Dynastie des Weber[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix du Lys 2016 pour La Dynastie des Weber.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Senger</t>
+          <t>Geneviève_Senger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Guerre des marrons, Toulouse, France, Éditions Milan, ill. d’Alfred Morera, coll. « Zanzibar », 1993, 229 p.  (ISBN 2-86726-909-1)
 L’Été de toutes les cerises, ill. de Sylvie Montmoulineix, Paris, Nathan, coll. « Bibliothèque internationale », 1993, 125 p.  (ISBN 2-09-240341-9)
